--- a/CV_resources.xlsx
+++ b/CV_resources.xlsx
@@ -635,7 +635,7 @@
     <t>[8] Chapter 7</t>
   </si>
   <si>
-    <t>Segmentation</t>
+    <t>Part-4: Segmentation</t>
   </si>
   <si>
     <t>Segmentation, Spectral clustering</t>
